--- a/howell_13.xlsx
+++ b/howell_13.xlsx
@@ -520,7 +520,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Aug 03, 2025.</t>
+          <t>For public domain. No rights reserved. Generated on Sep 03, 2025.</t>
         </is>
       </c>
     </row>
@@ -695,12 +695,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PlaceHolder74</t>
+          <t>PH42</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PlaceHolder18</t>
+          <t>PH97</t>
         </is>
       </c>
       <c r="D2" s="4">
@@ -714,12 +714,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PlaceHolder45</t>
+          <t>PH22</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PlaceHolder80</t>
+          <t>PH98</t>
         </is>
       </c>
       <c r="D3" s="4">
@@ -733,12 +733,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PlaceHolder13</t>
+          <t>PH58</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PlaceHolder86</t>
+          <t>PH18</t>
         </is>
       </c>
       <c r="D4" s="4">
@@ -752,12 +752,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PlaceHolder34</t>
+          <t>PH40</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PlaceHolder62</t>
+          <t>PH74</t>
         </is>
       </c>
       <c r="D5" s="4">
@@ -771,12 +771,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PlaceHolder99</t>
+          <t>PH84</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PlaceHolder27</t>
+          <t>PH89</t>
         </is>
       </c>
       <c r="D6" s="4">
@@ -790,12 +790,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PlaceHolder83</t>
+          <t>PH79</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PlaceHolder42</t>
+          <t>PH54</t>
         </is>
       </c>
       <c r="D7" s="4">
@@ -809,12 +809,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PlaceHolder88</t>
+          <t>PH94</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PlaceHolder92</t>
+          <t>PH67</t>
         </is>
       </c>
       <c r="D8" s="4">
@@ -828,12 +828,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PlaceHolder64</t>
+          <t>PH72</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PlaceHolder19</t>
+          <t>PH34</t>
         </is>
       </c>
       <c r="D9" s="4">
@@ -847,12 +847,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PlaceHolder58</t>
+          <t>PH93</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PlaceHolder80</t>
+          <t>PH36</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -866,12 +866,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PlaceHolder85</t>
+          <t>PH20</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PlaceHolder48</t>
+          <t>PH67</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -885,12 +885,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PlaceHolder65</t>
+          <t>PH27</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PlaceHolder19</t>
+          <t>PH39</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -904,12 +904,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PlaceHolder63</t>
+          <t>PH88</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PlaceHolder55</t>
+          <t>PH53</t>
         </is>
       </c>
       <c r="D13" s="4">
@@ -923,12 +923,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PlaceHolder23</t>
+          <t>PH12</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PlaceHolder90</t>
+          <t>PH42</t>
         </is>
       </c>
       <c r="D14" s="4">
